--- a/data/trans_orig/P36B_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B_3_R-Edad-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5135FC-5789-425F-AF4E-035899B2B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82BB8DF5-E577-4989-BD5C-3202920C317D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BAF4BFE-2FEB-4858-A9C9-2C24D4335675}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDC98C9A-023B-4033-A869-C43E97FA1EAB}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,50 +39,1178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2007 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>16/24</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>16/24</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>63,03%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>70,93%</t>
-  </si>
-  <si>
     <t>65,94%</t>
   </si>
   <si>
@@ -89,24 +1220,15 @@
     <t>72,73%</t>
   </si>
   <si>
-    <t>64,44%</t>
-  </si>
-  <si>
     <t>59,5%</t>
   </si>
   <si>
     <t>69,79%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>36,97%</t>
   </si>
   <si>
-    <t>29,07%</t>
-  </si>
-  <si>
     <t>44,99%</t>
   </si>
   <si>
@@ -119,21 +1241,12 @@
     <t>40,97%</t>
   </si>
   <si>
-    <t>35,56%</t>
-  </si>
-  <si>
     <t>30,21%</t>
   </si>
   <si>
     <t>40,5%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
     <t>65,82%</t>
   </si>
   <si>
@@ -188,9 +1301,6 @@
     <t>34,13%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
     <t>70,7%</t>
   </si>
   <si>
@@ -245,9 +1355,6 @@
     <t>29,1%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
     <t>72,85%</t>
   </si>
   <si>
@@ -302,9 +1409,6 @@
     <t>26,82%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
     <t>72,83%</t>
   </si>
   <si>
@@ -359,9 +1463,6 @@
     <t>26,12%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
     <t>75,82%</t>
   </si>
   <si>
@@ -416,9 +1517,6 @@
     <t>22,81%</t>
   </si>
   <si>
-    <t>71,12%</t>
-  </si>
-  <si>
     <t>69,22%</t>
   </si>
   <si>
@@ -443,9 +1541,6 @@
     <t>75,99%</t>
   </si>
   <si>
-    <t>28,88%</t>
-  </si>
-  <si>
     <t>26,86%</t>
   </si>
   <si>
@@ -468,9 +1563,6 @@
   </si>
   <si>
     <t>27,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
 </sst>
 </file>
@@ -882,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B87613-60B8-4319-B338-50A6EF4277B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FE1DAF-9F8F-47B1-97C3-A37201CEA5D2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1000,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7">
-        <v>238043</v>
+        <v>50373</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1015,10 +2107,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="I4" s="7">
-        <v>234058</v>
+        <v>77732</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1030,10 +2122,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="N4" s="7">
-        <v>472101</v>
+        <v>128105</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1051,10 +2143,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>450</v>
       </c>
       <c r="D5" s="7">
-        <v>139636</v>
+        <v>443691</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1066,10 +2158,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>75</v>
+        <v>408</v>
       </c>
       <c r="I5" s="7">
-        <v>120899</v>
+        <v>388697</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1081,10 +2173,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>137</v>
+        <v>858</v>
       </c>
       <c r="N5" s="7">
-        <v>260535</v>
+        <v>832388</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1102,10 +2194,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>172</v>
+        <v>499</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>494064</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1117,10 +2209,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>207</v>
+        <v>488</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>466429</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1132,10 +2224,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>379</v>
+        <v>987</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>960493</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1155,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="D7" s="7">
-        <v>281964</v>
+        <v>119376</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1170,10 +2262,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>331</v>
+        <v>142</v>
       </c>
       <c r="I7" s="7">
-        <v>362451</v>
+        <v>153261</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1185,10 +2277,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>530</v>
+        <v>254</v>
       </c>
       <c r="N7" s="7">
-        <v>644416</v>
+        <v>272637</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1206,10 +2298,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>103</v>
+        <v>591</v>
       </c>
       <c r="D8" s="7">
-        <v>146432</v>
+        <v>616113</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1221,10 +2313,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>128</v>
+        <v>449</v>
       </c>
       <c r="I8" s="7">
-        <v>134985</v>
+        <v>472233</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1236,10 +2328,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>231</v>
+        <v>1040</v>
       </c>
       <c r="N8" s="7">
-        <v>281416</v>
+        <v>1088345</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1257,10 +2349,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>302</v>
+        <v>703</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1272,10 +2364,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>459</v>
+        <v>591</v>
       </c>
       <c r="I9" s="7">
-        <v>497436</v>
+        <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1287,10 +2379,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>761</v>
+        <v>1294</v>
       </c>
       <c r="N9" s="7">
-        <v>925832</v>
+        <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1310,10 +2402,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>387</v>
+        <v>124</v>
       </c>
       <c r="D10" s="7">
-        <v>393853</v>
+        <v>127148</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1325,10 +2417,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>652</v>
+        <v>166</v>
       </c>
       <c r="I10" s="7">
-        <v>445080</v>
+        <v>178194</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1340,10 +2432,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1039</v>
+        <v>290</v>
       </c>
       <c r="N10" s="7">
-        <v>838933</v>
+        <v>305342</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1361,10 +2453,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>158</v>
+        <v>489</v>
       </c>
       <c r="D11" s="7">
-        <v>163239</v>
+        <v>511520</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1376,10 +2468,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>194</v>
+        <v>492</v>
       </c>
       <c r="I11" s="7">
-        <v>138396</v>
+        <v>511550</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1391,10 +2483,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>352</v>
+        <v>981</v>
       </c>
       <c r="N11" s="7">
-        <v>301635</v>
+        <v>1023070</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1412,10 +2504,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>545</v>
+        <v>613</v>
       </c>
       <c r="D12" s="7">
-        <v>557092</v>
+        <v>638668</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1427,10 +2519,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>846</v>
+        <v>658</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1442,10 +2534,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1391</v>
+        <v>1271</v>
       </c>
       <c r="N12" s="7">
-        <v>1140568</v>
+        <v>1328412</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1465,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>471</v>
+        <v>118</v>
       </c>
       <c r="D13" s="7">
-        <v>527455</v>
+        <v>125482</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1480,10 +2572,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>892</v>
+        <v>167</v>
       </c>
       <c r="I13" s="7">
-        <v>583636</v>
+        <v>173338</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1495,10 +2587,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1363</v>
+        <v>285</v>
       </c>
       <c r="N13" s="7">
-        <v>1111091</v>
+        <v>298820</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1516,10 +2608,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>194</v>
+        <v>366</v>
       </c>
       <c r="D14" s="7">
-        <v>196535</v>
+        <v>393665</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1531,10 +2623,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>247</v>
+        <v>335</v>
       </c>
       <c r="I14" s="7">
-        <v>162405</v>
+        <v>342304</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1546,10 +2638,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>441</v>
+        <v>701</v>
       </c>
       <c r="N14" s="7">
-        <v>358940</v>
+        <v>735969</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1567,10 +2659,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>665</v>
+        <v>484</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1582,10 +2674,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1139</v>
+        <v>502</v>
       </c>
       <c r="I15" s="7">
-        <v>746041</v>
+        <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1597,10 +2689,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>986</v>
       </c>
       <c r="N15" s="7">
-        <v>1470031</v>
+        <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1620,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>482</v>
+        <v>111</v>
       </c>
       <c r="D16" s="7">
-        <v>435728</v>
+        <v>112168</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1635,10 +2727,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>795</v>
+        <v>123</v>
       </c>
       <c r="I16" s="7">
-        <v>472683</v>
+        <v>124406</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1650,10 +2742,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>1277</v>
+        <v>234</v>
       </c>
       <c r="N16" s="7">
-        <v>908411</v>
+        <v>236574</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1671,10 +2763,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>179</v>
+        <v>280</v>
       </c>
       <c r="D17" s="7">
-        <v>162538</v>
+        <v>273708</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1686,10 +2778,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="I17" s="7">
-        <v>124380</v>
+        <v>279580</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1701,10 +2793,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>386</v>
+        <v>553</v>
       </c>
       <c r="N17" s="7">
-        <v>286918</v>
+        <v>553288</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1722,10 +2814,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>661</v>
+        <v>391</v>
       </c>
       <c r="D18" s="7">
-        <v>598266</v>
+        <v>385876</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1737,10 +2829,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>396</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1752,10 +2844,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1663</v>
+        <v>787</v>
       </c>
       <c r="N18" s="7">
-        <v>1195329</v>
+        <v>789862</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1775,10 +2867,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>776</v>
+        <v>157</v>
       </c>
       <c r="D19" s="7">
-        <v>527802</v>
+        <v>152154</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1790,10 +2882,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>1349</v>
+        <v>230</v>
       </c>
       <c r="I19" s="7">
-        <v>834323</v>
+        <v>234432</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1805,10 +2897,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>2125</v>
+        <v>387</v>
       </c>
       <c r="N19" s="7">
-        <v>1362125</v>
+        <v>386586</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1826,10 +2918,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="D20" s="7">
-        <v>168309</v>
+        <v>350312</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1841,10 +2933,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="I20" s="7">
-        <v>189774</v>
+        <v>442410</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1856,10 +2948,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>604</v>
+        <v>797</v>
       </c>
       <c r="N20" s="7">
-        <v>358083</v>
+        <v>792722</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1877,10 +2969,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>523</v>
       </c>
       <c r="D21" s="7">
-        <v>696111</v>
+        <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +2984,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1703</v>
+        <v>661</v>
       </c>
       <c r="I21" s="7">
-        <v>1024097</v>
+        <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +2999,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2729</v>
+        <v>1184</v>
       </c>
       <c r="N21" s="7">
-        <v>1720208</v>
+        <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1930,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2425</v>
+        <v>671</v>
       </c>
       <c r="D22" s="7">
-        <v>2404845</v>
+        <v>686702</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>126</v>
@@ -1945,10 +3037,10 @@
         <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>4151</v>
+        <v>908</v>
       </c>
       <c r="I22" s="7">
-        <v>2932231</v>
+        <v>941363</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>129</v>
@@ -1960,10 +3052,10 @@
         <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>6576</v>
+        <v>1579</v>
       </c>
       <c r="N22" s="7">
-        <v>5337076</v>
+        <v>1628064</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -1981,19 +3073,3676 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>2542</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2589007</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2388</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2436775</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" s="7">
+        <v>4930</v>
+      </c>
+      <c r="N23" s="7">
+        <v>5025783</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3213</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3275709</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3296</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3378138</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6509</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6653847</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F3AADD-19B7-43D2-BF9B-55365120817A}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>96</v>
+      </c>
+      <c r="D4" s="7">
+        <v>97194</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="7">
+        <v>127</v>
+      </c>
+      <c r="I4" s="7">
+        <v>130741</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="7">
+        <v>223</v>
+      </c>
+      <c r="N4" s="7">
+        <v>227935</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>350</v>
+      </c>
+      <c r="D5" s="7">
+        <v>356952</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="7">
+        <v>293</v>
+      </c>
+      <c r="I5" s="7">
+        <v>298547</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" s="7">
+        <v>643</v>
+      </c>
+      <c r="N5" s="7">
+        <v>655499</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>446</v>
+      </c>
+      <c r="D6" s="7">
+        <v>454146</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>420</v>
+      </c>
+      <c r="I6" s="7">
+        <v>429288</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>866</v>
+      </c>
+      <c r="N6" s="7">
+        <v>883434</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>208</v>
+      </c>
+      <c r="D7" s="7">
+        <v>211980</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="7">
+        <v>243</v>
+      </c>
+      <c r="I7" s="7">
+        <v>262583</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M7" s="7">
+        <v>451</v>
+      </c>
+      <c r="N7" s="7">
+        <v>474563</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>459</v>
+      </c>
+      <c r="D8" s="7">
+        <v>475107</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="7">
+        <v>328</v>
+      </c>
+      <c r="I8" s="7">
+        <v>347672</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M8" s="7">
+        <v>787</v>
+      </c>
+      <c r="N8" s="7">
+        <v>822779</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>667</v>
+      </c>
+      <c r="D9" s="7">
+        <v>687087</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>571</v>
+      </c>
+      <c r="I9" s="7">
+        <v>610255</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1238</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1297342</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>237</v>
+      </c>
+      <c r="D10" s="7">
+        <v>249133</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="7">
+        <v>318</v>
+      </c>
+      <c r="I10" s="7">
+        <v>339641</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="7">
+        <v>555</v>
+      </c>
+      <c r="N10" s="7">
+        <v>588774</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>413</v>
+      </c>
+      <c r="D11" s="7">
+        <v>431700</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="7">
+        <v>348</v>
+      </c>
+      <c r="I11" s="7">
+        <v>370225</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M11" s="7">
+        <v>761</v>
+      </c>
+      <c r="N11" s="7">
+        <v>801926</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>650</v>
+      </c>
+      <c r="D12" s="7">
+        <v>680833</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>666</v>
+      </c>
+      <c r="I12" s="7">
+        <v>709866</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1316</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1390700</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>202</v>
+      </c>
+      <c r="D13" s="7">
+        <v>225865</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="7">
+        <v>276</v>
+      </c>
+      <c r="I13" s="7">
+        <v>312141</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" s="7">
+        <v>478</v>
+      </c>
+      <c r="N13" s="7">
+        <v>538006</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>344</v>
+      </c>
+      <c r="D14" s="7">
+        <v>386712</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="7">
+        <v>260</v>
+      </c>
+      <c r="I14" s="7">
+        <v>299912</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="7">
+        <v>604</v>
+      </c>
+      <c r="N14" s="7">
+        <v>686624</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>546</v>
+      </c>
+      <c r="D15" s="7">
+        <v>612577</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>536</v>
+      </c>
+      <c r="I15" s="7">
+        <v>612053</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1082</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1224630</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>171</v>
+      </c>
+      <c r="D16" s="7">
+        <v>185180</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="7">
+        <v>191</v>
+      </c>
+      <c r="I16" s="7">
+        <v>208849</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M16" s="7">
+        <v>362</v>
+      </c>
+      <c r="N16" s="7">
+        <v>394030</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>222</v>
+      </c>
+      <c r="D17" s="7">
+        <v>244249</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="7">
+        <v>214</v>
+      </c>
+      <c r="I17" s="7">
+        <v>237117</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" s="7">
+        <v>436</v>
+      </c>
+      <c r="N17" s="7">
+        <v>481365</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>393</v>
+      </c>
+      <c r="D18" s="7">
+        <v>429429</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>405</v>
+      </c>
+      <c r="I18" s="7">
+        <v>445966</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>798</v>
+      </c>
+      <c r="N18" s="7">
+        <v>875395</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>238</v>
+      </c>
+      <c r="D19" s="7">
+        <v>258957</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="7">
+        <v>358</v>
+      </c>
+      <c r="I19" s="7">
+        <v>383838</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M19" s="7">
+        <v>596</v>
+      </c>
+      <c r="N19" s="7">
+        <v>642794</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>262</v>
+      </c>
+      <c r="D20" s="7">
+        <v>296542</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="7">
+        <v>335</v>
+      </c>
+      <c r="I20" s="7">
+        <v>357210</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" s="7">
+        <v>597</v>
+      </c>
+      <c r="N20" s="7">
+        <v>653752</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>500</v>
+      </c>
+      <c r="D21" s="7">
+        <v>555499</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>693</v>
+      </c>
+      <c r="I21" s="7">
+        <v>741048</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1193</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1296546</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1152</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1228309</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1513</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1637794</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2665</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2866102</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2050</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2191263</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1778</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1910683</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M23" s="7">
+        <v>3828</v>
+      </c>
+      <c r="N23" s="7">
+        <v>4101946</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3202</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3419572</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3291</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3548477</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6493</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6968048</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87958BA5-E225-4D41-A0DF-850D1B092488}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>78</v>
+      </c>
+      <c r="D4" s="7">
+        <v>83599</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="7">
+        <v>95</v>
+      </c>
+      <c r="I4" s="7">
+        <v>94716</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M4" s="7">
+        <v>173</v>
+      </c>
+      <c r="N4" s="7">
+        <v>178315</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>312</v>
+      </c>
+      <c r="D5" s="7">
+        <v>332661</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="7">
+        <v>307</v>
+      </c>
+      <c r="I5" s="7">
+        <v>299108</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M5" s="7">
+        <v>619</v>
+      </c>
+      <c r="N5" s="7">
+        <v>631769</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>390</v>
+      </c>
+      <c r="D6" s="7">
+        <v>416260</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>402</v>
+      </c>
+      <c r="I6" s="7">
+        <v>393824</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>792</v>
+      </c>
+      <c r="N6" s="7">
+        <v>810084</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>142</v>
+      </c>
+      <c r="D7" s="7">
+        <v>149475</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" s="7">
+        <v>171</v>
+      </c>
+      <c r="I7" s="7">
+        <v>168380</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M7" s="7">
+        <v>313</v>
+      </c>
+      <c r="N7" s="7">
+        <v>317855</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>423</v>
+      </c>
+      <c r="D8" s="7">
+        <v>438988</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="7">
+        <v>404</v>
+      </c>
+      <c r="I8" s="7">
+        <v>391342</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="7">
+        <v>827</v>
+      </c>
+      <c r="N8" s="7">
+        <v>830331</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>565</v>
+      </c>
+      <c r="D9" s="7">
+        <v>588463</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>575</v>
+      </c>
+      <c r="I9" s="7">
+        <v>559722</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1140</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1148186</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>167</v>
+      </c>
+      <c r="D10" s="7">
+        <v>177771</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H10" s="7">
+        <v>238</v>
+      </c>
+      <c r="I10" s="7">
+        <v>241524</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M10" s="7">
+        <v>405</v>
+      </c>
+      <c r="N10" s="7">
+        <v>419294</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>470</v>
+      </c>
+      <c r="D11" s="7">
+        <v>490383</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="7">
+        <v>425</v>
+      </c>
+      <c r="I11" s="7">
+        <v>417869</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="7">
+        <v>895</v>
+      </c>
+      <c r="N11" s="7">
+        <v>908253</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>637</v>
+      </c>
+      <c r="D12" s="7">
+        <v>668154</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>663</v>
+      </c>
+      <c r="I12" s="7">
+        <v>659393</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1300</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1327547</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>164</v>
+      </c>
+      <c r="D13" s="7">
+        <v>183699</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H13" s="7">
+        <v>220</v>
+      </c>
+      <c r="I13" s="7">
+        <v>236058</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M13" s="7">
+        <v>384</v>
+      </c>
+      <c r="N13" s="7">
+        <v>419758</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>412</v>
+      </c>
+      <c r="D14" s="7">
+        <v>455315</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H14" s="7">
+        <v>380</v>
+      </c>
+      <c r="I14" s="7">
+        <v>410818</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M14" s="7">
+        <v>792</v>
+      </c>
+      <c r="N14" s="7">
+        <v>866132</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>576</v>
+      </c>
+      <c r="D15" s="7">
+        <v>639014</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>600</v>
+      </c>
+      <c r="I15" s="7">
+        <v>646876</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1176</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1285890</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>133</v>
+      </c>
+      <c r="D16" s="7">
+        <v>151842</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H16" s="7">
+        <v>168</v>
+      </c>
+      <c r="I16" s="7">
+        <v>193971</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M16" s="7">
+        <v>301</v>
+      </c>
+      <c r="N16" s="7">
+        <v>345813</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>289</v>
+      </c>
+      <c r="D17" s="7">
+        <v>323034</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" s="7">
+        <v>262</v>
+      </c>
+      <c r="I17" s="7">
+        <v>299489</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M17" s="7">
+        <v>551</v>
+      </c>
+      <c r="N17" s="7">
+        <v>622522</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>422</v>
+      </c>
+      <c r="D18" s="7">
+        <v>474876</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>430</v>
+      </c>
+      <c r="I18" s="7">
+        <v>493460</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>852</v>
+      </c>
+      <c r="N18" s="7">
+        <v>968335</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>203</v>
+      </c>
+      <c r="D19" s="7">
+        <v>188952</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H19" s="7">
+        <v>265</v>
+      </c>
+      <c r="I19" s="7">
+        <v>313564</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M19" s="7">
+        <v>468</v>
+      </c>
+      <c r="N19" s="7">
+        <v>502516</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>423</v>
+      </c>
+      <c r="D20" s="7">
+        <v>401452</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H20" s="7">
+        <v>387</v>
+      </c>
+      <c r="I20" s="7">
+        <v>460945</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M20" s="7">
+        <v>810</v>
+      </c>
+      <c r="N20" s="7">
+        <v>862397</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>626</v>
+      </c>
+      <c r="D21" s="7">
+        <v>590404</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>652</v>
+      </c>
+      <c r="I21" s="7">
+        <v>774509</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1278</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1364913</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>887</v>
+      </c>
+      <c r="D22" s="7">
+        <v>935337</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1157</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1248213</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2044</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2183550</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2329</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2441835</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2165</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2279571</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="M23" s="7">
+        <v>4494</v>
+      </c>
+      <c r="N23" s="7">
+        <v>4721406</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3216</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3377172</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3322</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3527784</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6538</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6904956</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9993FCE2-C7A9-45D1-A9A1-A63647B1DEF7}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>110</v>
+      </c>
+      <c r="D4" s="7">
+        <v>238043</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="7">
+        <v>132</v>
+      </c>
+      <c r="I4" s="7">
+        <v>234058</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M4" s="7">
+        <v>242</v>
+      </c>
+      <c r="N4" s="7">
+        <v>472101</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>62</v>
+      </c>
+      <c r="D5" s="7">
+        <v>139636</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H5" s="7">
+        <v>75</v>
+      </c>
+      <c r="I5" s="7">
+        <v>120899</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M5" s="7">
+        <v>137</v>
+      </c>
+      <c r="N5" s="7">
+        <v>260535</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>172</v>
+      </c>
+      <c r="D6" s="7">
+        <v>377679</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>207</v>
+      </c>
+      <c r="I6" s="7">
+        <v>354957</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>379</v>
+      </c>
+      <c r="N6" s="7">
+        <v>732636</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>199</v>
+      </c>
+      <c r="D7" s="7">
+        <v>281964</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H7" s="7">
+        <v>331</v>
+      </c>
+      <c r="I7" s="7">
+        <v>362451</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M7" s="7">
+        <v>530</v>
+      </c>
+      <c r="N7" s="7">
+        <v>644416</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>103</v>
+      </c>
+      <c r="D8" s="7">
+        <v>146432</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H8" s="7">
+        <v>128</v>
+      </c>
+      <c r="I8" s="7">
+        <v>134985</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M8" s="7">
+        <v>231</v>
+      </c>
+      <c r="N8" s="7">
+        <v>281416</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>302</v>
+      </c>
+      <c r="D9" s="7">
+        <v>428396</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>459</v>
+      </c>
+      <c r="I9" s="7">
+        <v>497436</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>761</v>
+      </c>
+      <c r="N9" s="7">
+        <v>925832</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>387</v>
+      </c>
+      <c r="D10" s="7">
+        <v>393853</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H10" s="7">
+        <v>652</v>
+      </c>
+      <c r="I10" s="7">
+        <v>445080</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1039</v>
+      </c>
+      <c r="N10" s="7">
+        <v>838933</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>158</v>
+      </c>
+      <c r="D11" s="7">
+        <v>163239</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" s="7">
+        <v>194</v>
+      </c>
+      <c r="I11" s="7">
+        <v>138396</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="M11" s="7">
+        <v>352</v>
+      </c>
+      <c r="N11" s="7">
+        <v>301635</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>545</v>
+      </c>
+      <c r="D12" s="7">
+        <v>557092</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>846</v>
+      </c>
+      <c r="I12" s="7">
+        <v>583476</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1391</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1140568</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>471</v>
+      </c>
+      <c r="D13" s="7">
+        <v>527455</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H13" s="7">
+        <v>892</v>
+      </c>
+      <c r="I13" s="7">
+        <v>583636</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1363</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1111091</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>194</v>
+      </c>
+      <c r="D14" s="7">
+        <v>196535</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H14" s="7">
+        <v>247</v>
+      </c>
+      <c r="I14" s="7">
+        <v>162405</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="M14" s="7">
+        <v>441</v>
+      </c>
+      <c r="N14" s="7">
+        <v>358940</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>665</v>
+      </c>
+      <c r="D15" s="7">
+        <v>723990</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1139</v>
+      </c>
+      <c r="I15" s="7">
+        <v>746041</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1804</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1470031</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>482</v>
+      </c>
+      <c r="D16" s="7">
+        <v>435728</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H16" s="7">
+        <v>795</v>
+      </c>
+      <c r="I16" s="7">
+        <v>472683</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1277</v>
+      </c>
+      <c r="N16" s="7">
+        <v>908411</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>179</v>
+      </c>
+      <c r="D17" s="7">
+        <v>162538</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H17" s="7">
+        <v>207</v>
+      </c>
+      <c r="I17" s="7">
+        <v>124380</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M17" s="7">
+        <v>386</v>
+      </c>
+      <c r="N17" s="7">
+        <v>286918</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>661</v>
+      </c>
+      <c r="D18" s="7">
+        <v>598266</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1002</v>
+      </c>
+      <c r="I18" s="7">
+        <v>597063</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1663</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1195329</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>776</v>
+      </c>
+      <c r="D19" s="7">
+        <v>527802</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1349</v>
+      </c>
+      <c r="I19" s="7">
+        <v>834323</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2125</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1362125</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>250</v>
+      </c>
+      <c r="D20" s="7">
+        <v>168309</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H20" s="7">
+        <v>354</v>
+      </c>
+      <c r="I20" s="7">
+        <v>189774</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="M20" s="7">
+        <v>604</v>
+      </c>
+      <c r="N20" s="7">
+        <v>358083</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1026</v>
+      </c>
+      <c r="D21" s="7">
+        <v>696111</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1703</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1024097</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2729</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1720208</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2425</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2404845</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4151</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2932231</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="M22" s="7">
+        <v>6576</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5337076</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
         <v>946</v>
       </c>
       <c r="D23" s="7">
         <v>976689</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>500</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>501</v>
       </c>
       <c r="H23" s="7">
         <v>1205</v>
@@ -2002,13 +6751,13 @@
         <v>870839</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>502</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>503</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="M23" s="7">
         <v>2151</v>
@@ -2017,13 +6766,13 @@
         <v>1847528</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>505</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B_3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82BB8DF5-E577-4989-BD5C-3202920C317D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C1395CB-1138-4A61-A32C-A3336CDD686D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDC98C9A-023B-4033-A869-C43E97FA1EAB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{673B79F2-8363-4B52-9C1D-4867ACF4B22D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>10,2%</t>
   </si>
   <si>
-    <t>7,65%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>20,37%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,8%</t>
   </si>
   <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
     <t>86,69%</t>
   </si>
   <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
     <t>86,66%</t>
   </si>
   <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>16,23%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>24,5%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
   </si>
   <si>
     <t>83,77%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>75,5%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
   </si>
   <si>
     <t>79,97%</t>
   </si>
   <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,16 +197,16 @@
     <t>19,91%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>25,83%</t>
   </si>
   <si>
-    <t>22,53%</t>
+    <t>22,68%</t>
   </si>
   <si>
     <t>29,53%</t>
@@ -215,19 +215,19 @@
     <t>22,99%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>80,09%</t>
   </si>
   <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
   </si>
   <si>
     <t>74,17%</t>
@@ -236,16 +236,16 @@
     <t>70,47%</t>
   </si>
   <si>
-    <t>77,47%</t>
+    <t>77,32%</t>
   </si>
   <si>
     <t>77,01%</t>
   </si>
   <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>24,17%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
   </si>
   <si>
     <t>33,62%</t>
   </si>
   <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
   </si>
   <si>
     <t>28,88%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
   </si>
   <si>
     <t>75,83%</t>
   </si>
   <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
   </si>
   <si>
     <t>66,38%</t>
   </si>
   <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
   </si>
   <si>
     <t>71,12%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>29,07%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
   </si>
   <si>
     <t>30,79%</t>
   </si>
   <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
   </si>
   <si>
     <t>29,95%</t>
   </si>
   <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>70,93%</t>
   </si>
   <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>69,21%</t>
   </si>
   <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>70,05%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,1201 +368,1213 @@
     <t>30,28%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
   </si>
   <si>
     <t>34,64%</t>
   </si>
   <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>30,18%</t>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
   </si>
   <si>
     <t>35,56%</t>
   </si>
   <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
   </si>
   <si>
     <t>19,3%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>24,78%</t>
   </si>
   <si>
     <t>24,42%</t>
   </si>
   <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>72,83%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>79,17%</t>
   </si>
   <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
   </si>
   <si>
     <t>76,0%</t>
   </si>
   <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>27,17%</t>
   </si>
   <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
   </si>
   <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
   </si>
   <si>
     <t>75,82%</t>
   </si>
   <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>79,18%</t>
   </si>
   <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
   </si>
   <si>
     <t>20,82%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
   </si>
   <si>
     <t>77,1%</t>
   </si>
   <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>22,9%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
+    <t>27,03%</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FE1DAF-9F8F-47B1-97C3-A37201CEA5D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C325A8-7199-4C1A-9111-615305D24A0E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3193,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F3AADD-19B7-43D2-BF9B-55365120817A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B03865-114D-49B9-9DFA-8F5EB8DA732B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3812,13 +3824,13 @@
         <v>538006</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3845,13 @@
         <v>386712</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>260</v>
@@ -3848,13 +3860,13 @@
         <v>299912</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>604</v>
@@ -3863,13 +3875,13 @@
         <v>686624</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3949,13 @@
         <v>185180</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
@@ -3952,13 +3964,13 @@
         <v>208849</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -3967,13 +3979,13 @@
         <v>394030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +4000,13 @@
         <v>244249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>214</v>
@@ -4003,13 +4015,13 @@
         <v>237117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>436</v>
@@ -4018,13 +4030,13 @@
         <v>481365</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4104,13 @@
         <v>258957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>358</v>
@@ -4107,13 +4119,13 @@
         <v>383838</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>596</v>
@@ -4122,13 +4134,13 @@
         <v>642794</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4155,13 @@
         <v>296542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>335</v>
@@ -4158,13 +4170,13 @@
         <v>357210</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>597</v>
@@ -4412,7 +4424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87958BA5-E225-4D41-A0DF-850D1B092488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7671DB-D4BA-4768-99E5-0A40545B7820}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4542,7 +4554,7 @@
         <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7">
         <v>95</v>
@@ -4551,13 +4563,13 @@
         <v>94716</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>173</v>
@@ -4566,13 +4578,13 @@
         <v>178315</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4599,13 @@
         <v>332661</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>307</v>
@@ -4602,13 +4614,13 @@
         <v>299108</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>619</v>
@@ -4617,13 +4629,13 @@
         <v>631769</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4703,13 @@
         <v>149475</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>171</v>
@@ -4706,13 +4718,13 @@
         <v>168380</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -4721,13 +4733,13 @@
         <v>317855</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4754,13 @@
         <v>438988</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H8" s="7">
         <v>404</v>
@@ -4757,13 +4769,13 @@
         <v>391342</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M8" s="7">
         <v>827</v>
@@ -4864,10 +4876,10 @@
         <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>405</v>
@@ -4876,13 +4888,13 @@
         <v>419294</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4909,13 @@
         <v>490383</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
@@ -4912,13 +4924,13 @@
         <v>417869</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>895</v>
@@ -4927,13 +4939,13 @@
         <v>908253</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5013,13 @@
         <v>183699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>220</v>
@@ -5016,13 +5028,13 @@
         <v>236058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>384</v>
@@ -5031,13 +5043,13 @@
         <v>419758</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5064,13 @@
         <v>455315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>380</v>
@@ -5067,13 +5079,13 @@
         <v>410818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>792</v>
@@ -5082,13 +5094,13 @@
         <v>866132</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5168,13 @@
         <v>151842</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>168</v>
@@ -5171,13 +5183,13 @@
         <v>193971</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>301</v>
@@ -5186,13 +5198,13 @@
         <v>345813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5219,13 @@
         <v>323034</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -5222,13 +5234,13 @@
         <v>299489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>551</v>
@@ -5237,13 +5249,13 @@
         <v>622522</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5323,13 @@
         <v>188952</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H19" s="7">
         <v>265</v>
@@ -5326,13 +5338,13 @@
         <v>313564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>468</v>
@@ -5341,13 +5353,13 @@
         <v>502516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5374,13 @@
         <v>401452</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="H20" s="7">
         <v>387</v>
@@ -5377,13 +5389,13 @@
         <v>460945</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
         <v>810</v>
@@ -5392,13 +5404,13 @@
         <v>862397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5478,13 @@
         <v>935337</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>1157</v>
@@ -5481,13 +5493,13 @@
         <v>1248213</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>2044</v>
@@ -5496,13 +5508,13 @@
         <v>2183550</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5529,13 @@
         <v>2441835</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H23" s="7">
         <v>2165</v>
@@ -5532,13 +5544,13 @@
         <v>2279571</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>4494</v>
@@ -5547,13 +5559,13 @@
         <v>4721406</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,7 +5643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9993FCE2-C7A9-45D1-A9A1-A63647B1DEF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A369E11-AEF9-495D-88AA-39F900E09789}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5660,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5767,13 @@
         <v>238043</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>98</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>132</v>
@@ -5770,13 +5782,13 @@
         <v>234058</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>242</v>
@@ -5785,13 +5797,13 @@
         <v>472101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>400</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5818,13 @@
         <v>139636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -5821,13 +5833,13 @@
         <v>120899</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -5836,13 +5848,13 @@
         <v>260535</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5922,13 @@
         <v>281964</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="H7" s="7">
         <v>331</v>
@@ -5925,13 +5937,13 @@
         <v>362451</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M7" s="7">
         <v>530</v>
@@ -5940,13 +5952,13 @@
         <v>644416</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5973,13 @@
         <v>146432</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -5976,13 +5988,13 @@
         <v>134985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="M8" s="7">
         <v>231</v>
@@ -5991,13 +6003,13 @@
         <v>281416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6077,13 @@
         <v>393853</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>652</v>
@@ -6080,13 +6092,13 @@
         <v>445080</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>1039</v>
@@ -6095,13 +6107,13 @@
         <v>838933</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6128,13 @@
         <v>163239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
@@ -6131,13 +6143,13 @@
         <v>138396</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>352</v>
@@ -6146,13 +6158,13 @@
         <v>301635</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6232,13 @@
         <v>527455</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>892</v>
@@ -6235,13 +6247,13 @@
         <v>583636</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="M13" s="7">
         <v>1363</v>
@@ -6250,13 +6262,13 @@
         <v>1111091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6283,13 @@
         <v>196535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>247</v>
@@ -6286,13 +6298,13 @@
         <v>162405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>441</v>
@@ -6301,13 +6313,13 @@
         <v>358940</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6387,13 @@
         <v>435728</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>795</v>
@@ -6390,13 +6402,13 @@
         <v>472683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
         <v>1277</v>
@@ -6405,13 +6417,13 @@
         <v>908411</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6438,13 @@
         <v>162538</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -6441,13 +6453,13 @@
         <v>124380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
@@ -6456,13 +6468,13 @@
         <v>286918</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6542,13 @@
         <v>527802</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="H19" s="7">
         <v>1349</v>
@@ -6545,13 +6557,13 @@
         <v>834323</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="M19" s="7">
         <v>2125</v>
@@ -6560,13 +6572,13 @@
         <v>1362125</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6593,13 @@
         <v>168309</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="H20" s="7">
         <v>354</v>
@@ -6596,13 +6608,13 @@
         <v>189774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="M20" s="7">
         <v>604</v>
@@ -6611,13 +6623,13 @@
         <v>358083</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,10 +6700,10 @@
         <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>4151</v>
@@ -6700,13 +6712,13 @@
         <v>2932231</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
         <v>6576</v>
@@ -6715,13 +6727,13 @@
         <v>5337076</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,10 +6751,10 @@
         <v>76</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="H23" s="7">
         <v>1205</v>
@@ -6751,13 +6763,13 @@
         <v>870839</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="M23" s="7">
         <v>2151</v>
@@ -6766,13 +6778,13 @@
         <v>1847528</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B_3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C1395CB-1138-4A61-A32C-A3336CDD686D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F709764-1419-4EA0-9FBC-A9B672C03073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{673B79F2-8363-4B52-9C1D-4867ACF4B22D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E21C3395-BDDB-4AD3-A3E7-D9B91AC2501D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="583">
   <si>
     <t>Población que consume verduras y hortalizas a diario en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>16,23%</t>
@@ -191,7 +191,7 @@
     <t>81,99%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>19,91%</t>
@@ -248,7 +248,7 @@
     <t>79,31%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>24,17%</t>
@@ -305,7 +305,7 @@
     <t>73,92%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>29,07%</t>
@@ -362,1219 +362,1432 @@
     <t>73,12%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>30,97%</t>
   </si>
   <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>Población que consume verduras y hortalizas a diario en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
+    <t>27,1%</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +2199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C325A8-7199-4C1A-9111-615305D24A0E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5AB5D9-74D4-498F-8C80-5A4AE05DBA82}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2879,10 +3092,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="D19" s="7">
-        <v>152154</v>
+        <v>82935</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2894,10 +3107,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="I19" s="7">
-        <v>234432</v>
+        <v>122272</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2909,10 +3122,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>387</v>
+        <v>217</v>
       </c>
       <c r="N19" s="7">
-        <v>386586</v>
+        <v>205207</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2930,10 +3143,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>366</v>
+        <v>218</v>
       </c>
       <c r="D20" s="7">
-        <v>350312</v>
+        <v>209648</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2945,10 +3158,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>431</v>
+        <v>239</v>
       </c>
       <c r="I20" s="7">
-        <v>442410</v>
+        <v>220662</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2960,10 +3173,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>797</v>
+        <v>457</v>
       </c>
       <c r="N20" s="7">
-        <v>792722</v>
+        <v>430310</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2981,10 +3194,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2996,10 +3209,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3011,10 +3224,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3028,55 +3241,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>671</v>
+        <v>72</v>
       </c>
       <c r="D22" s="7">
-        <v>686702</v>
+        <v>69219</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>908</v>
+        <v>98</v>
       </c>
       <c r="I22" s="7">
-        <v>941363</v>
+        <v>112160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1579</v>
+        <v>170</v>
       </c>
       <c r="N22" s="7">
-        <v>1628064</v>
+        <v>181379</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,49 +3298,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2542</v>
+        <v>148</v>
       </c>
       <c r="D23" s="7">
-        <v>2589007</v>
+        <v>140664</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>2388</v>
+        <v>192</v>
       </c>
       <c r="I23" s="7">
-        <v>2436775</v>
+        <v>221748</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>4930</v>
+        <v>340</v>
       </c>
       <c r="N23" s="7">
-        <v>5025783</v>
+        <v>362412</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,63 +3349,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>671</v>
+      </c>
+      <c r="D25" s="7">
+        <v>686702</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>908</v>
+      </c>
+      <c r="I25" s="7">
+        <v>941362</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1579</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1628064</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2542</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2589007</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2388</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2436775</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4930</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5025783</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275709</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
-        <v>3378138</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3378137</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6509</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6653847</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3205,8 +3574,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B03865-114D-49B9-9DFA-8F5EB8DA732B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572047CE-598F-4DC3-BC75-2E199580113A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3222,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3329,13 +3698,13 @@
         <v>97194</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>127</v>
@@ -3344,13 +3713,13 @@
         <v>130741</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>223</v>
@@ -3359,13 +3728,13 @@
         <v>227935</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3749,13 @@
         <v>356952</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>293</v>
@@ -3395,13 +3764,13 @@
         <v>298547</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>643</v>
@@ -3410,13 +3779,13 @@
         <v>655499</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3853,13 @@
         <v>211980</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>243</v>
@@ -3499,13 +3868,13 @@
         <v>262583</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>451</v>
@@ -3514,13 +3883,13 @@
         <v>474563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3904,13 @@
         <v>475107</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>328</v>
@@ -3550,13 +3919,13 @@
         <v>347672</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>787</v>
@@ -3565,13 +3934,13 @@
         <v>822779</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +4008,13 @@
         <v>249133</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>318</v>
@@ -3654,13 +4023,13 @@
         <v>339641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>555</v>
@@ -3669,13 +4038,13 @@
         <v>588774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,28 +4059,28 @@
         <v>431700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>348</v>
       </c>
       <c r="I11" s="7">
-        <v>370225</v>
+        <v>370226</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>761</v>
@@ -3720,13 +4089,13 @@
         <v>801926</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,7 +4122,7 @@
         <v>666</v>
       </c>
       <c r="I12" s="7">
-        <v>709866</v>
+        <v>709867</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3794,13 +4163,13 @@
         <v>225865</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>276</v>
@@ -3809,13 +4178,13 @@
         <v>312141</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>478</v>
@@ -3824,13 +4193,13 @@
         <v>538006</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +4214,13 @@
         <v>386712</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>260</v>
@@ -3860,13 +4229,13 @@
         <v>299912</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>604</v>
@@ -3875,13 +4244,13 @@
         <v>686624</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +4318,13 @@
         <v>185180</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>191</v>
@@ -3964,13 +4333,13 @@
         <v>208849</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -3979,13 +4348,13 @@
         <v>394030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4369,13 @@
         <v>244249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>214</v>
@@ -4015,13 +4384,13 @@
         <v>237117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>436</v>
@@ -4030,13 +4399,13 @@
         <v>481365</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,49 +4467,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="D19" s="7">
-        <v>258957</v>
+        <v>141807</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>358</v>
+        <v>176</v>
       </c>
       <c r="I19" s="7">
-        <v>383838</v>
+        <v>183556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
-        <v>596</v>
+        <v>306</v>
       </c>
       <c r="N19" s="7">
-        <v>642794</v>
+        <v>325363</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,49 +4518,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>149</v>
+      </c>
+      <c r="D20" s="7">
+        <v>164910</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D20" s="7">
-        <v>296542</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="F20" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
-        <v>335</v>
+        <v>168</v>
       </c>
       <c r="I20" s="7">
-        <v>357210</v>
+        <v>170440</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
-        <v>597</v>
+        <v>317</v>
       </c>
       <c r="N20" s="7">
-        <v>653752</v>
+        <v>335350</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,10 +4569,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>500</v>
+        <v>279</v>
       </c>
       <c r="D21" s="7">
-        <v>555499</v>
+        <v>306717</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4215,10 +4584,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741048</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4230,10 +4599,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1193</v>
+        <v>623</v>
       </c>
       <c r="N21" s="7">
-        <v>1296546</v>
+        <v>660713</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4247,55 +4616,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1152</v>
+        <v>108</v>
       </c>
       <c r="D22" s="7">
-        <v>1228309</v>
+        <v>117150</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>1513</v>
+        <v>182</v>
       </c>
       <c r="I22" s="7">
-        <v>1637794</v>
+        <v>200282</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
-        <v>2665</v>
+        <v>290</v>
       </c>
       <c r="N22" s="7">
-        <v>2866102</v>
+        <v>317432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,49 +4673,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2050</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7">
-        <v>2191263</v>
+        <v>131632</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
-        <v>1778</v>
+        <v>167</v>
       </c>
       <c r="I23" s="7">
-        <v>1910683</v>
+        <v>186770</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
-        <v>3828</v>
+        <v>280</v>
       </c>
       <c r="N23" s="7">
-        <v>4101946</v>
+        <v>318402</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,63 +4724,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248782</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387052</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>570</v>
+      </c>
+      <c r="N24" s="7">
+        <v>635834</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1152</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1228309</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1513</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1637794</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2665</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2866103</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2050</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2191262</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1778</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1910683</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3828</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4101946</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3202</v>
       </c>
-      <c r="D24" s="7">
-        <v>3419572</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3419571</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3291</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3548477</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6493</v>
       </c>
-      <c r="N24" s="7">
-        <v>6968048</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6968049</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4424,8 +4949,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7671DB-D4BA-4768-99E5-0A40545B7820}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BFB3E1-043A-4BB9-B16B-5AEC08D35778}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4441,7 +4966,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,10 +5073,10 @@
         <v>83599</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>35</v>
@@ -4563,13 +5088,13 @@
         <v>94716</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="M4" s="7">
         <v>173</v>
@@ -4578,13 +5103,13 @@
         <v>178315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +5124,13 @@
         <v>332661</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>307</v>
@@ -4614,13 +5139,13 @@
         <v>299108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>619</v>
@@ -4629,13 +5154,13 @@
         <v>631769</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +5228,13 @@
         <v>149475</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>171</v>
@@ -4718,13 +5243,13 @@
         <v>168380</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -4733,13 +5258,13 @@
         <v>317855</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +5279,13 @@
         <v>438988</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>404</v>
@@ -4769,13 +5294,13 @@
         <v>391342</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>827</v>
@@ -4784,13 +5309,13 @@
         <v>830331</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +5383,13 @@
         <v>177771</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
@@ -4873,13 +5398,13 @@
         <v>241524</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>405</v>
@@ -4888,13 +5413,13 @@
         <v>419294</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +5434,13 @@
         <v>490383</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
@@ -4924,13 +5449,13 @@
         <v>417869</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>895</v>
@@ -4939,13 +5464,13 @@
         <v>908253</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5538,13 @@
         <v>183699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>220</v>
@@ -5028,13 +5553,13 @@
         <v>236058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>384</v>
@@ -5043,13 +5568,13 @@
         <v>419758</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5589,13 @@
         <v>455315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>380</v>
@@ -5079,13 +5604,13 @@
         <v>410818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>792</v>
@@ -5094,13 +5619,13 @@
         <v>866132</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5693,13 @@
         <v>151842</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>168</v>
@@ -5183,13 +5708,13 @@
         <v>193971</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>301</v>
@@ -5198,13 +5723,13 @@
         <v>345813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5744,13 @@
         <v>323034</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -5234,13 +5759,13 @@
         <v>299489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>551</v>
@@ -5249,13 +5774,13 @@
         <v>622522</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,49 +5842,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="D19" s="7">
-        <v>188952</v>
+        <v>107162</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
-        <v>265</v>
+        <v>156</v>
       </c>
       <c r="I19" s="7">
-        <v>313564</v>
+        <v>166480</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
-        <v>468</v>
+        <v>261</v>
       </c>
       <c r="N19" s="7">
-        <v>502516</v>
+        <v>273642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,49 +5893,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>423</v>
+        <v>219</v>
       </c>
       <c r="D20" s="7">
-        <v>401452</v>
+        <v>226244</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
-        <v>387</v>
+        <v>196</v>
       </c>
       <c r="I20" s="7">
-        <v>460945</v>
+        <v>209207</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
-        <v>810</v>
+        <v>415</v>
       </c>
       <c r="N20" s="7">
-        <v>862397</v>
+        <v>435451</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,10 +5944,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>626</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>590404</v>
+        <v>333406</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5434,10 +5959,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>652</v>
+        <v>352</v>
       </c>
       <c r="I21" s="7">
-        <v>774509</v>
+        <v>375687</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5449,10 +5974,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1278</v>
+        <v>676</v>
       </c>
       <c r="N21" s="7">
-        <v>1364913</v>
+        <v>709093</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5466,55 +5991,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>887</v>
+        <v>98</v>
       </c>
       <c r="D22" s="7">
-        <v>935337</v>
+        <v>81790</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
-        <v>1157</v>
+        <v>109</v>
       </c>
       <c r="I22" s="7">
-        <v>1248213</v>
+        <v>147084</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="M22" s="7">
-        <v>2044</v>
+        <v>207</v>
       </c>
       <c r="N22" s="7">
-        <v>2183550</v>
+        <v>228874</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,49 +6048,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2329</v>
+        <v>204</v>
       </c>
       <c r="D23" s="7">
-        <v>2441835</v>
+        <v>175208</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="H23" s="7">
-        <v>2165</v>
+        <v>191</v>
       </c>
       <c r="I23" s="7">
-        <v>2279571</v>
+        <v>251738</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="M23" s="7">
-        <v>4494</v>
+        <v>395</v>
       </c>
       <c r="N23" s="7">
-        <v>4721406</v>
+        <v>426946</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,63 +6099,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>300</v>
+      </c>
+      <c r="I24" s="7">
+        <v>398822</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>602</v>
+      </c>
+      <c r="N24" s="7">
+        <v>655820</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>887</v>
+      </c>
+      <c r="D25" s="7">
+        <v>935337</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1157</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1248213</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2044</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2183550</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2329</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2441834</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2165</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2279571</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4494</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4721406</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3216</v>
       </c>
-      <c r="D24" s="7">
-        <v>3377172</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3377171</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3322</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3527784</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6538</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6904956</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5643,8 +6324,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A369E11-AEF9-495D-88AA-39F900E09789}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6518B63D-667C-479D-8916-B3961801ED56}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5660,7 +6341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5764,46 +6445,46 @@
         <v>110</v>
       </c>
       <c r="D4" s="7">
-        <v>238043</v>
+        <v>242476</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="H4" s="7">
         <v>132</v>
       </c>
       <c r="I4" s="7">
-        <v>234058</v>
+        <v>198862</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="M4" s="7">
         <v>242</v>
       </c>
       <c r="N4" s="7">
-        <v>472101</v>
+        <v>441339</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,46 +6496,46 @@
         <v>62</v>
       </c>
       <c r="D5" s="7">
-        <v>139636</v>
+        <v>157511</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
       </c>
       <c r="I5" s="7">
-        <v>120899</v>
+        <v>114338</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
       </c>
       <c r="N5" s="7">
-        <v>260535</v>
+        <v>271848</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,7 +6547,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5881,7 +6562,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5896,7 +6577,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5919,46 +6600,46 @@
         <v>199</v>
       </c>
       <c r="D7" s="7">
-        <v>281964</v>
+        <v>271508</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="H7" s="7">
         <v>331</v>
       </c>
       <c r="I7" s="7">
-        <v>362451</v>
+        <v>384851</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="M7" s="7">
         <v>530</v>
       </c>
       <c r="N7" s="7">
-        <v>644416</v>
+        <v>656359</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>314</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,46 +6651,46 @@
         <v>103</v>
       </c>
       <c r="D8" s="7">
-        <v>146432</v>
+        <v>152039</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
       </c>
       <c r="I8" s="7">
-        <v>134985</v>
+        <v>125782</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="M8" s="7">
         <v>231</v>
       </c>
       <c r="N8" s="7">
-        <v>281416</v>
+        <v>277821</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>483</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,7 +6702,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6036,7 +6717,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>497436</v>
+        <v>510633</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6051,7 +6732,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>925832</v>
+        <v>934180</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6074,46 +6755,46 @@
         <v>387</v>
       </c>
       <c r="D10" s="7">
-        <v>393853</v>
+        <v>373234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="H10" s="7">
         <v>652</v>
       </c>
       <c r="I10" s="7">
-        <v>445080</v>
+        <v>411096</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="M10" s="7">
         <v>1039</v>
       </c>
       <c r="N10" s="7">
-        <v>838933</v>
+        <v>784329</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,46 +6806,46 @@
         <v>158</v>
       </c>
       <c r="D11" s="7">
-        <v>163239</v>
+        <v>162941</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
       </c>
       <c r="I11" s="7">
-        <v>138396</v>
+        <v>131372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>352</v>
       </c>
       <c r="N11" s="7">
-        <v>301635</v>
+        <v>294313</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6857,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>557092</v>
+        <v>536175</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6191,7 +6872,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6206,7 +6887,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1140568</v>
+        <v>1078642</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6229,46 +6910,46 @@
         <v>471</v>
       </c>
       <c r="D13" s="7">
-        <v>527455</v>
+        <v>695417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="H13" s="7">
         <v>892</v>
       </c>
       <c r="I13" s="7">
-        <v>583636</v>
+        <v>559917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="M13" s="7">
         <v>1363</v>
       </c>
       <c r="N13" s="7">
-        <v>1111091</v>
+        <v>1255334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,46 +6961,46 @@
         <v>194</v>
       </c>
       <c r="D14" s="7">
-        <v>196535</v>
+        <v>192369</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="H14" s="7">
         <v>247</v>
       </c>
       <c r="I14" s="7">
-        <v>162405</v>
+        <v>151893</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>460</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>441</v>
       </c>
       <c r="N14" s="7">
-        <v>358940</v>
+        <v>344262</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +7012,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6346,7 +7027,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746041</v>
+        <v>711810</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6361,7 +7042,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1470031</v>
+        <v>1599596</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6384,46 +7065,46 @@
         <v>482</v>
       </c>
       <c r="D16" s="7">
-        <v>435728</v>
+        <v>404281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>795</v>
       </c>
       <c r="I16" s="7">
-        <v>472683</v>
+        <v>432361</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>1277</v>
       </c>
       <c r="N16" s="7">
-        <v>908411</v>
+        <v>836642</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,46 +7116,46 @@
         <v>179</v>
       </c>
       <c r="D17" s="7">
-        <v>162538</v>
+        <v>155215</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
       </c>
       <c r="I17" s="7">
-        <v>124380</v>
+        <v>115544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="M17" s="7">
         <v>386</v>
       </c>
       <c r="N17" s="7">
-        <v>286918</v>
+        <v>270759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>481</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +7167,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598266</v>
+        <v>559496</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6501,7 +7182,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6516,7 +7197,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1195329</v>
+        <v>1107401</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6536,49 +7217,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>776</v>
+        <v>434</v>
       </c>
       <c r="D19" s="7">
-        <v>527802</v>
+        <v>275872</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
       <c r="H19" s="7">
-        <v>1349</v>
+        <v>672</v>
       </c>
       <c r="I19" s="7">
-        <v>834323</v>
+        <v>532318</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="M19" s="7">
-        <v>2125</v>
+        <v>1106</v>
       </c>
       <c r="N19" s="7">
-        <v>1362125</v>
+        <v>808189</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>489</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>490</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,49 +7268,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7">
-        <v>168309</v>
+        <v>91486</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>491</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
-        <v>354</v>
+        <v>153</v>
       </c>
       <c r="I20" s="7">
-        <v>189774</v>
+        <v>74955</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>494</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
-        <v>604</v>
+        <v>288</v>
       </c>
       <c r="N20" s="7">
-        <v>358083</v>
+        <v>166442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,10 +7319,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696111</v>
+        <v>367358</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6653,10 +7334,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1703</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1024097</v>
+        <v>607273</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6668,10 +7349,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2729</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1720208</v>
+        <v>974631</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6685,55 +7366,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2425</v>
+        <v>342</v>
       </c>
       <c r="D22" s="7">
-        <v>2404845</v>
+        <v>212984</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>85</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
-        <v>4151</v>
+        <v>677</v>
       </c>
       <c r="I22" s="7">
-        <v>2932231</v>
+        <v>324358</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
-        <v>6576</v>
+        <v>1019</v>
       </c>
       <c r="N22" s="7">
-        <v>5337076</v>
+        <v>537340</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>482</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,49 +7423,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>946</v>
+        <v>115</v>
       </c>
       <c r="D23" s="7">
-        <v>976689</v>
+        <v>69034</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>76</v>
+        <v>556</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>442</v>
+        <v>557</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="H23" s="7">
-        <v>1205</v>
+        <v>201</v>
       </c>
       <c r="I23" s="7">
-        <v>870839</v>
+        <v>100230</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="M23" s="7">
-        <v>2151</v>
+        <v>316</v>
       </c>
       <c r="N23" s="7">
-        <v>1847528</v>
+        <v>169265</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>491</v>
+        <v>563</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>511</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,63 +7474,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282018</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424588</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706605</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2425</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2475771</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4151</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2843761</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6576</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5319533</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>946</v>
+      </c>
+      <c r="D26" s="7">
+        <v>980595</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1205</v>
+      </c>
+      <c r="I26" s="7">
+        <v>814115</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2151</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1794710</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3371</v>
       </c>
-      <c r="D24" s="7">
-        <v>3381534</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3456366</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5356</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803070</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657876</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8727</v>
       </c>
-      <c r="N24" s="7">
-        <v>7184604</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7114243</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
